--- a/makalah/seceduler.xlsx
+++ b/makalah/seceduler.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>MediaChips</t>
   </si>
@@ -88,13 +88,85 @@
   </si>
   <si>
     <t>Report : View page report, File server report</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>SA (Sistem Analis)</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>SDM</t>
+  </si>
+  <si>
+    <t>Server HP ProLiant DL500 Series</t>
+  </si>
+  <si>
+    <t>Notebook (include software dev)</t>
+  </si>
+  <si>
+    <t>support tools</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Listrik</t>
+  </si>
+  <si>
+    <t>Internet Connection</t>
+  </si>
+  <si>
+    <t>Printer HP Color LaserJet</t>
+  </si>
+  <si>
+    <t>Telepon</t>
+  </si>
+  <si>
+    <t>Mesin Fotocopy</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Projector WXGA</t>
+  </si>
+  <si>
+    <t>CCTV Camera</t>
+  </si>
+  <si>
+    <t>Monthley Cost</t>
+  </si>
+  <si>
+    <t>Oprasional</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Qty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;Rp&quot;\ #,##0_);\(&quot;Rp&quot;\ #,##0\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +181,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,21 +223,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -464,11 +564,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -484,13 +584,13 @@
         <v>21</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="2">
         <f>SUM(D5:D10)</f>
         <v>23</v>
@@ -566,10 +666,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="2">
         <f>SUM(D12:D16)</f>
         <v>75</v>
@@ -634,10 +734,10 @@
       </c>
     </row>
     <row r="17" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="2">
         <f>SUM(D18:D19)</f>
         <v>4</v>
@@ -669,10 +769,10 @@
       </c>
     </row>
     <row r="20" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="2">
         <f>SUM(D21:D22)</f>
         <v>12</v>
@@ -704,10 +804,10 @@
       </c>
     </row>
     <row r="23" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -717,14 +817,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -733,15 +833,349 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7">
+        <f>SUM(C3:C5)</f>
+        <v>6</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9">
+        <f>D3+E3</f>
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
+        <f>C4*8000000</f>
+        <v>16000000</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G18" si="0">D4+E4</f>
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9">
+        <f>C5*11000000</f>
+        <v>33000000</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
+        <f>SUM(C7:C13)</f>
+        <v>19</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
+        <f>C7*60000000</f>
+        <v>60000000</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
+        <f>C8*11000000</f>
+        <v>88000000</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>88000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="9">
+        <v>4149000</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>4149000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="9">
+        <v>15500000</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>15500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="9">
+        <v>21400000</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>21400000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="9">
+        <v>3600000</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="9">
+        <v>2035000</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
+        <f t="shared" si="0"/>
+        <v>2035000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="9">
+        <v>8000000</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
+        <v>200000000</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="9">
+        <f>SUM(G3:G18)</f>
+        <v>491684000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
